--- a/ВПВ/осмос P(v).xlsx
+++ b/ВПВ/осмос P(v).xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VASILY WORKS\PHYSTECH\Тех_работы\ВПВ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHYSTECH\TexWorks\ВПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECE20E-A5E2-4889-8284-F4B8C9A012B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>v1</t>
   </si>
@@ -78,12 +88,27 @@
   </si>
   <si>
     <t>sigma b</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>sigma k_случ 1</t>
+  </si>
+  <si>
+    <t>sigma k_случ 2</t>
+  </si>
+  <si>
+    <t>sigma k_случ 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,16 +420,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -424,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>204</v>
       </c>
@@ -444,7 +469,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>180</v>
       </c>
@@ -464,7 +489,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>160</v>
       </c>
@@ -484,7 +509,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>140</v>
       </c>
@@ -504,7 +529,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>100</v>
       </c>
@@ -524,7 +549,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
@@ -544,7 +569,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -564,7 +589,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -584,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>AVERAGE(A2:A8)</f>
         <v>120.57142857142857</v>
@@ -610,7 +635,7 @@
         <v>0.58871428571428575</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -621,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>A2*B2</f>
         <v>110.16000000000001</v>
@@ -635,9 +660,9 @@
         <v>218.28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" ref="A15:A22" si="0">A3*B3</f>
+        <f t="shared" ref="A15:A20" si="0">A3*B3</f>
         <v>86.399999999999991</v>
       </c>
       <c r="D15">
@@ -649,7 +674,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>65.599999999999994</v>
@@ -663,7 +688,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>47.6</v>
@@ -677,7 +702,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -691,7 +716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>6.6</v>
@@ -705,7 +730,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -719,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -730,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>AVERAGE(A14:A20)</f>
         <v>48.337142857142858</v>
@@ -744,7 +769,7 @@
         <v>94.611428571428561</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -764,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>A2^2</f>
         <v>41616</v>
@@ -790,9 +815,9 @@
         <v>1.1449</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" ref="A27:B34" si="3">A3^2</f>
+        <f t="shared" ref="A27:B31" si="3">A3^2</f>
         <v>32400</v>
       </c>
       <c r="B27">
@@ -816,7 +841,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>25600</v>
@@ -842,7 +867,7 @@
         <v>0.6241000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>19600</v>
@@ -868,7 +893,7 @@
         <v>0.46240000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>10000</v>
@@ -894,7 +919,7 @@
         <v>0.21160000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>3600</v>
@@ -920,7 +945,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>A8^2</f>
         <v>0</v>
@@ -946,7 +971,7 @@
         <v>3.6099999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -966,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>AVERAGE(A26:A32)</f>
         <v>18973.714285714286</v>
@@ -992,7 +1017,7 @@
         <v>0.47299442857142854</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A11^2</f>
         <v>14537.469387755102</v>
@@ -1038,25 +1063,33 @@
         <v>0.34658451020408165</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>(A23-A11*B11)/(B35-B38)</f>
         <v>335.63051375194607</v>
       </c>
-      <c r="C42">
-        <f t="shared" ref="B42:H42" si="8">(C23-C11*D11)/(D35-D38)</f>
-        <v>0</v>
-      </c>
       <c r="D42">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D42:G42" si="8">(D23-D11*E11)/(E35-E38)</f>
         <v>218.57542980738148</v>
       </c>
       <c r="G42">
@@ -1064,17 +1097,13 @@
         <v>186.92604526317521</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B43">
         <f>A11-A42*B11</f>
         <v>22.759107420861426</v>
       </c>
-      <c r="D43">
-        <f t="shared" ref="C43:H43" si="9">C11-C42*D11</f>
-        <v>0</v>
-      </c>
       <c r="E43">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E43:H43" si="9">D11-D42*E11</f>
         <v>13.500693027212691</v>
       </c>
       <c r="H43">
@@ -1082,7 +1111,7 @@
         <v>10.525395352922132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1101,33 +1130,54 @@
       <c r="H46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>0.378*(SQRT((A35-A38)/(B35-B38)-A42^2))</f>
         <v>4.7446940158433186</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="B47:H47" si="10">0.378*(SQRT((D35-D38)/(E35-E38)-D42^2))</f>
+        <f t="shared" ref="D47:G47" si="10">0.378*(SQRT((D35-D38)/(E35-E38)-D42^2))</f>
         <v>6.6433527286273568</v>
       </c>
       <c r="G47">
         <f t="shared" si="10"/>
         <v>4.6721476812433194</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <f xml:space="preserve"> 0.11 * A42</f>
+        <v>36.919356512714067</v>
+      </c>
+      <c r="M47">
+        <f xml:space="preserve"> 0.11 * D42</f>
+        <v>24.043297278811963</v>
+      </c>
+      <c r="O47">
+        <f xml:space="preserve"> 0.11 * G42</f>
+        <v>20.561864978949274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48">
-        <f>A47*(SQRT(B35-B38))</f>
-        <v>0.94091637652212035</v>
+        <f>K47*(SQRT(B35-B38))</f>
+        <v>7.3214472919592373</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="C48:H48" si="11">D47*(SQRT(E35-E38))</f>
-        <v>2.0178753041960324</v>
+        <f>M47*(SQRT(E35-E38))</f>
+        <v>7.3029956096253734</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
-        <v>1.6611434470385793</v>
+        <f>O47*(SQRT(H35-H38))</f>
+        <v>7.3106009482098031</v>
       </c>
     </row>
   </sheetData>
